--- a/virome_abundance_meta_analysis/final_aggregate_tables/shkoporov_2019_phanta_aggregated.xlsx
+++ b/virome_abundance_meta_analysis/final_aggregate_tables/shkoporov_2019_phanta_aggregated.xlsx
@@ -13,7 +13,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="160">
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>shkoporov_2019_subject_921</t>
+  </si>
+  <si>
+    <t>shkoporov_2019_subject_920</t>
+  </si>
+  <si>
+    <t>shkoporov_2019_subject_923</t>
+  </si>
+  <si>
+    <t>shkoporov_2019_subject_922</t>
+  </si>
+  <si>
+    <t>shkoporov_2019_subject_917</t>
+  </si>
+  <si>
+    <t>shkoporov_2019_subject_916</t>
+  </si>
+  <si>
+    <t>shkoporov_2019_subject_919</t>
+  </si>
+  <si>
+    <t>shkoporov_2019_subject_918</t>
+  </si>
+  <si>
+    <t>shkoporov_2019_subject_925</t>
+  </si>
+  <si>
+    <t>shkoporov_2019_subject_924</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>n_sample</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>shkoporov_2019_phanta</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>meta_bulk</t>
+  </si>
+  <si>
+    <t>mean_phage_load</t>
+  </si>
+  <si>
+    <t>sttdev_phage_load</t>
+  </si>
   <si>
     <t>subject</t>
   </si>
@@ -492,42 +552,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C2" s="0">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F2" s="0">
         <v>582547743974.22424</v>
@@ -536,19 +596,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C3" s="0">
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F3" s="0">
         <v>612253933102.01355</v>
@@ -557,19 +617,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C4" s="0">
         <v>1</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F4" s="0">
         <v>435231829021.36078</v>
@@ -578,19 +638,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C5" s="0">
         <v>1</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F5" s="0">
         <v>228213715803.68686</v>
@@ -599,19 +659,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C6" s="0">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F6" s="0">
         <v>286812678576.7536</v>
@@ -620,19 +680,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C7" s="0">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F7" s="0">
         <v>251712102227.5773</v>
@@ -641,19 +701,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C8" s="0">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F8" s="0">
         <v>383225894262.36896</v>
@@ -662,19 +722,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C9" s="0">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F9" s="0">
         <v>334224351468.88208</v>
@@ -683,19 +743,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C10" s="0">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F10" s="0">
         <v>266022321100.34991</v>
@@ -704,19 +764,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C11" s="0">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F11" s="0">
         <v>332430767646.22711</v>

--- a/virome_abundance_meta_analysis/final_aggregate_tables/shkoporov_2019_phanta_aggregated.xlsx
+++ b/virome_abundance_meta_analysis/final_aggregate_tables/shkoporov_2019_phanta_aggregated.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="423" uniqueCount="160">
   <si>
     <t>subject</t>
   </si>
@@ -498,7 +498,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -537,8 +537,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="true"/>
